--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/ValueSet/visit-ordinal</t>
+    <t>https://fhir.hmis.gov.np/ValueSet/visit-ordinal</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,25 +102,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>185349003"</t>
-  </si>
-  <si>
-    <t>First Visit</t>
-  </si>
-  <si>
-    <t>308335008</t>
-  </si>
-  <si>
-    <t>Follow-up Visit</t>
-  </si>
-  <si>
-    <t>308646001</t>
-  </si>
-  <si>
-    <t>Subsequent Visit</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>185389009</t>
   </si>
   <si>
     <t/>
@@ -404,7 +395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,10 +407,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -429,10 +423,13 @@
       <c r="B2" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>33</v>
@@ -444,22 +441,6 @@
       </c>
       <c r="B4" t="s" s="2">
         <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-visit-ordinal.xlsx
+++ b/output/ValueSet-visit-ordinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
